--- a/docs/win/dump/nhl_012126.xlsx
+++ b/docs/win/dump/nhl_012126.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Time</t>
   </si>
@@ -19,18 +19,7 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>Goalies</t>
-  </si>
-  <si>
     <t>Win</t>
-  </si>
-  <si>
-    <t>Best
-ML</t>
-  </si>
-  <si>
-    <t>Best
-Spread</t>
   </si>
   <si>
     <t>Goals</t>
@@ -44,13 +33,6 @@
 O/U</t>
   </si>
   <si>
-    <t>Bet
-Value</t>
-  </si>
-  <si>
-    <t>More Details</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <rFont val="&quot;IBM Plex Mono&quot;, monospace"/>
@@ -111,10 +93,6 @@
     </r>
   </si>
   <si>
-    <t>John Gibson
-Joseph Woll</t>
-  </si>
-  <si>
     <t>46.5%
 53.5%</t>
   </si>
@@ -187,10 +165,6 @@
     </r>
   </si>
   <si>
-    <t>Lukáš Dostál
-Scott Wedgewood</t>
-  </si>
-  <si>
     <t>28.6%
 71.4%</t>
   </si>
@@ -203,9 +177,6 @@
 u7-135</t>
   </si>
   <si>
-    <t>Volatility Bet Value Active</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <rFont val="&quot;IBM Plex Mono&quot;, monospace"/>
@@ -266,10 +237,6 @@
     </r>
   </si>
   <si>
-    <t>Daniel Vladař
-Karel Vejmelka</t>
-  </si>
-  <si>
     <t>37.9%
 62.1%</t>
   </si>
@@ -342,22 +309,10 @@
     </r>
   </si>
   <si>
-    <t>Arturs Silovs
-Dustin Wolf</t>
-  </si>
-  <si>
     <t>47.6%
 52.4%</t>
   </si>
   <si>
-    <t>-113
-+104</t>
-  </si>
-  <si>
-    <t>-1½+210
-+1½-245</t>
-  </si>
-  <si>
     <t>2.94
 3.19</t>
   </si>
@@ -426,22 +381,10 @@
     </r>
   </si>
   <si>
-    <t>Ilya Sorokin
-Joey Daccord</t>
-  </si>
-  <si>
     <t>54.1%
 45.9%</t>
   </si>
   <si>
-    <t>-107
--103</t>
-  </si>
-  <si>
-    <t>-1½+230
-+1½-260</t>
-  </si>
-  <si>
     <t>3.05
 2.61</t>
   </si>
@@ -510,20 +453,8 @@
     </r>
   </si>
   <si>
-    <t>Logan Thompson
-Thatcher Demko</t>
-  </si>
-  <si>
     <t>60.6%
 39.4%</t>
-  </si>
-  <si>
-    <t>-165
-+150</t>
-  </si>
-  <si>
-    <t>-1½+155
-+1½-170</t>
   </si>
   <si>
     <t>3.53
@@ -538,7 +469,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -548,10 +479,6 @@
     <font>
       <color rgb="FF282727"/>
       <name val="&quot;IBM Plex Sans&quot;"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Inherit"/>
     </font>
     <font>
       <u/>
@@ -566,11 +493,6 @@
     </font>
     <font>
       <sz val="12.0"/>
-      <color rgb="FF5A5A5A"/>
-      <name val="&quot;IBM Plex Sans&quot;"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
       <color rgb="FFDB3131"/>
       <name val="&quot;IBM Plex Mono&quot;"/>
     </font>
@@ -580,15 +502,14 @@
       <name val="&quot;IBM Plex Mono&quot;"/>
     </font>
     <font>
-      <u/>
       <sz val="12.0"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF74B06D"/>
       <name val="&quot;IBM Plex Mono&quot;"/>
     </font>
     <font>
       <sz val="12.0"/>
-      <color rgb="FF74B06D"/>
-      <name val="&quot;IBM Plex Mono&quot;"/>
+      <color rgb="FF5A5A5A"/>
+      <name val="&quot;IBM Plex Sans&quot;"/>
     </font>
   </fonts>
   <fills count="4">
@@ -611,15 +532,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border/>
     <border>
       <bottom style="thin">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="dotted">
         <color rgb="FFDDDDDD"/>
       </bottom>
     </border>
@@ -632,68 +548,44 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -935,246 +827,145 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="7">
-        <f>+108
--116</f>
-        <v>-8</v>
-      </c>
-      <c r="F2" s="7" t="str">
-        <f>+1½-225
--1½+200</f>
-        <v>#ERROR!</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="9">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6">
         <v>6.15</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11"/>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="14">
-        <f>+260
--291</f>
-        <v>-31</v>
-      </c>
-      <c r="F3" s="14" t="str">
-        <f>+1½+105
--1½-118</f>
-        <v>#ERROR!</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="16">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="9">
         <v>6.76</v>
       </c>
-      <c r="I3" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="11"/>
+      <c r="F3" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="7">
-        <f>+155
--170</f>
-        <v>-15</v>
-      </c>
-      <c r="F4" s="7" t="str">
-        <f>+1½-168
--1½+150</f>
-        <v>#ERROR!</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="9">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="6">
         <v>5.68</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
+      <c r="F4" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="16">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="9">
         <v>6.13</v>
       </c>
-      <c r="I5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="11"/>
+      <c r="F5" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="9">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="6">
         <v>5.66</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11"/>
+      <c r="F6" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="16">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="9">
         <v>6.01</v>
       </c>
-      <c r="I7" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="11"/>
+      <c r="F7" s="9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="20"/>
+      <c r="A8" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A2"/>
     <hyperlink r:id="rId2" ref="B2"/>
-    <hyperlink r:id="rId3" ref="K2"/>
-    <hyperlink r:id="rId4" ref="A3"/>
-    <hyperlink r:id="rId5" ref="B3"/>
-    <hyperlink r:id="rId6" ref="K3"/>
-    <hyperlink r:id="rId7" ref="A4"/>
-    <hyperlink r:id="rId8" ref="B4"/>
-    <hyperlink r:id="rId9" ref="K4"/>
-    <hyperlink r:id="rId10" ref="A5"/>
-    <hyperlink r:id="rId11" ref="B5"/>
-    <hyperlink r:id="rId12" ref="K5"/>
-    <hyperlink r:id="rId13" ref="A6"/>
-    <hyperlink r:id="rId14" ref="B6"/>
-    <hyperlink r:id="rId15" ref="K6"/>
-    <hyperlink r:id="rId16" ref="A7"/>
-    <hyperlink r:id="rId17" ref="B7"/>
-    <hyperlink r:id="rId18" ref="K7"/>
+    <hyperlink r:id="rId3" ref="A3"/>
+    <hyperlink r:id="rId4" ref="B3"/>
+    <hyperlink r:id="rId5" ref="A4"/>
+    <hyperlink r:id="rId6" ref="B4"/>
+    <hyperlink r:id="rId7" ref="A5"/>
+    <hyperlink r:id="rId8" ref="B5"/>
+    <hyperlink r:id="rId9" ref="A6"/>
+    <hyperlink r:id="rId10" ref="B6"/>
+    <hyperlink r:id="rId11" ref="A7"/>
+    <hyperlink r:id="rId12" ref="B7"/>
   </hyperlinks>
-  <drawing r:id="rId19"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>